--- a/biology/Zoologie/Diamant_à_gouttelettes/Diamant_à_gouttelettes.xlsx
+++ b/biology/Zoologie/Diamant_à_gouttelettes/Diamant_à_gouttelettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_gouttelettes</t>
+          <t>Diamant_à_gouttelettes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stagonopleura guttata
 Le Diamant à gouttelettes (Stagonopleura guttata ou Emblema guttata) est une espèce d'oiseaux qui fait partie de la famille des Estrildidae. Ce petit passereau est originaire d'Australie, mais certaines variétés d'élevage sont considérées comme domestiques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_gouttelettes</t>
+          <t>Diamant_à_gouttelettes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Un Diamant à gouttelettes vers Lithgow, en Nouvelle-Galles du Sud, Australie.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_gouttelettes</t>
+          <t>Diamant_à_gouttelettes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu dans les régions côtières tempérées du sud-est de l'Australie depuis la péninsule d'Eyre en Australie-Méridionale, jusqu'au sud-est du Queensland, généralement sur les pentes de la Cordillère australienne.
 Il vit dans les forêts, les bois et les mallees d'eucalyptus. Il a tendance à s'installer sur les terres agricoles abandonnées et les prairies.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_gouttelettes</t>
+          <t>Diamant_à_gouttelettes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Comportement et reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe beaucoup de son temps sur le sol à trouver des graines et des insectes.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_gouttelettes</t>
+          <t>Diamant_à_gouttelettes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,14 +627,16 @@
           <t>Variétés domestiques et législation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En en droit français, seuls les individus des variétés suivantes, issues d'élevage, sont considérés comme étant des animaux domestiques[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En en droit français, seuls les individus des variétés suivantes, issues d'élevage, sont considérés comme étant des animaux domestiques.
 variété brune
 variété à bec jaune
 variété pastel
 variété argentée
-Les autres formes relèvent donc de la législation concernant les animaux sauvages[1] et nécessitent un certificat de capacité pour l'entretien d'animaux d'espèces non domestiques.
+Les autres formes relèvent donc de la législation concernant les animaux sauvages et nécessitent un certificat de capacité pour l'entretien d'animaux d'espèces non domestiques.
 </t>
         </is>
       </c>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diamant_%C3%A0_gouttelettes</t>
+          <t>Diamant_à_gouttelettes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
